--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1894459.820841101</v>
+        <v>-1897016.118014699</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>354.885166818638</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9338715566937</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.7321536188797</v>
       </c>
       <c r="I2" t="n">
-        <v>42.04518470759555</v>
+        <v>42.04518470759564</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.4645365582629</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9711388310543</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.9961436311612</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>253.6690443036751</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.0059677968616</v>
       </c>
       <c r="H3" t="n">
-        <v>89.65963851412518</v>
+        <v>89.65963851412519</v>
       </c>
       <c r="I3" t="n">
-        <v>8.915218264396643</v>
+        <v>8.915218264396685</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>166.0312564930842</v>
       </c>
       <c r="H4" t="n">
-        <v>7.290655169928367</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I4" t="n">
-        <v>96.51626366671982</v>
+        <v>96.51626366671985</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.17712508496179</v>
+        <v>89.17712508496183</v>
       </c>
       <c r="S4" t="n">
         <v>189.8639731922165</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2121353820159</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>64.06629092722358</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>48.9493907264109</v>
       </c>
       <c r="G5" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>249.0496200158102</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>269.5229459461239</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>303.682824345902</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1060,13 +1060,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1102,10 +1102,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>167.2829751020674</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>96.281553822245</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>305.8400413120991</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>205.2347568737156</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>84.23315119160456</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,16 +1300,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>190.0391450213913</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>18.70843787977262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>204.4247418692613</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>99.97427419833636</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038625</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>42.71572132711237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,13 +2056,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214435</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>13.74238375877729</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>83.53432244437134</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417106</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3044,7 +3044,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="33">
@@ -3193,19 +3193,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002298</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3247,7 +3247,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3484,7 +3484,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,10 +3721,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3910,7 +3910,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1293.22629409966</v>
+        <v>1930.397424107236</v>
       </c>
       <c r="C2" t="n">
-        <v>1293.22629409966</v>
+        <v>1561.434907166824</v>
       </c>
       <c r="D2" t="n">
-        <v>1293.22629409966</v>
+        <v>1203.169208560074</v>
       </c>
       <c r="E2" t="n">
-        <v>934.756428626288</v>
+        <v>817.3809559618294</v>
       </c>
       <c r="F2" t="n">
-        <v>523.7705238366804</v>
+        <v>406.3950511722218</v>
       </c>
       <c r="G2" t="n">
-        <v>108.6858050925453</v>
+        <v>406.3950511722218</v>
       </c>
       <c r="H2" t="n">
-        <v>108.6858050925453</v>
+        <v>108.6858050925454</v>
       </c>
       <c r="I2" t="n">
         <v>66.21592154951945</v>
       </c>
       <c r="J2" t="n">
-        <v>254.0744928369593</v>
+        <v>254.0744928369591</v>
       </c>
       <c r="K2" t="n">
-        <v>586.3643121319021</v>
+        <v>586.3643121319017</v>
       </c>
       <c r="L2" t="n">
-        <v>1035.500977900982</v>
+        <v>1035.500977900981</v>
       </c>
       <c r="M2" t="n">
         <v>1566.921495383895</v>
       </c>
       <c r="N2" t="n">
-        <v>2111.554760801561</v>
+        <v>2111.55476080156</v>
       </c>
       <c r="O2" t="n">
-        <v>2612.501248106874</v>
+        <v>2612.501248106873</v>
       </c>
       <c r="P2" t="n">
-        <v>3005.546484356409</v>
+        <v>3005.546484356408</v>
       </c>
       <c r="Q2" t="n">
         <v>3252.534341412641</v>
       </c>
       <c r="R2" t="n">
-        <v>3310.796077475973</v>
+        <v>3310.796077475972</v>
       </c>
       <c r="S2" t="n">
         <v>3200.225838528232</v>
       </c>
       <c r="T2" t="n">
-        <v>2994.194385163531</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="U2" t="n">
-        <v>2740.662926950236</v>
+        <v>2946.694380314937</v>
       </c>
       <c r="V2" t="n">
-        <v>2409.600039606666</v>
+        <v>2946.694380314937</v>
       </c>
       <c r="W2" t="n">
-        <v>2056.831384336551</v>
+        <v>2690.463022432437</v>
       </c>
       <c r="X2" t="n">
-        <v>1683.365626075471</v>
+        <v>2316.997264171358</v>
       </c>
       <c r="Y2" t="n">
-        <v>1293.22629409966</v>
+        <v>2316.997264171358</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3156003142904</v>
+        <v>931.3156003142899</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8625710331634</v>
+        <v>756.8625710331629</v>
       </c>
       <c r="D3" t="n">
-        <v>607.928161371912</v>
+        <v>607.9281613719115</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6907063664564</v>
+        <v>448.690706366456</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1561483933415</v>
+        <v>302.156148393341</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7864839520676</v>
+        <v>165.7864839520669</v>
       </c>
       <c r="H3" t="n">
-        <v>75.22119252365796</v>
+        <v>75.22119252365769</v>
       </c>
       <c r="I3" t="n">
         <v>66.21592154951945</v>
@@ -4410,7 +4410,7 @@
         <v>159.2853526912741</v>
       </c>
       <c r="K3" t="n">
-        <v>396.5106591183472</v>
+        <v>396.510659118347</v>
       </c>
       <c r="L3" t="n">
         <v>761.8119001858313</v>
@@ -4419,13 +4419,13 @@
         <v>1207.458086537445</v>
       </c>
       <c r="N3" t="n">
-        <v>1679.30784629592</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O3" t="n">
-        <v>2088.738397943177</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P3" t="n">
-        <v>2398.009445431871</v>
+        <v>2398.00944543187</v>
       </c>
       <c r="Q3" t="n">
         <v>2554.829753957941</v>
@@ -4443,7 +4443,7 @@
         <v>2004.532201264789</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.380093033047</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W3" t="n">
         <v>1515.142736304845</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>657.8325573541382</v>
+        <v>944.6474686113694</v>
       </c>
       <c r="C4" t="n">
-        <v>488.8963744262313</v>
+        <v>775.7112856834625</v>
       </c>
       <c r="D4" t="n">
-        <v>338.7797350138956</v>
+        <v>625.5946462711267</v>
       </c>
       <c r="E4" t="n">
-        <v>338.7797350138956</v>
+        <v>477.6815526887336</v>
       </c>
       <c r="F4" t="n">
-        <v>338.7797350138956</v>
+        <v>477.6815526887336</v>
       </c>
       <c r="G4" t="n">
-        <v>171.0713951218914</v>
+        <v>309.9732127967294</v>
       </c>
       <c r="H4" t="n">
         <v>163.7070969704486</v>
@@ -4486,52 +4486,52 @@
         <v>66.21592154951945</v>
       </c>
       <c r="J4" t="n">
-        <v>110.9572157501789</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K4" t="n">
-        <v>314.3177428179431</v>
+        <v>314.3177428179429</v>
       </c>
       <c r="L4" t="n">
-        <v>630.0756374886843</v>
+        <v>630.0756374886839</v>
       </c>
       <c r="M4" t="n">
-        <v>973.3871879897969</v>
+        <v>973.3871879897964</v>
       </c>
       <c r="N4" t="n">
         <v>1313.970173580891</v>
       </c>
       <c r="O4" t="n">
-        <v>1612.537390213392</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P4" t="n">
-        <v>1844.492540894131</v>
+        <v>1844.49254089413</v>
       </c>
       <c r="Q4" t="n">
-        <v>1921.651183891644</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R4" t="n">
-        <v>1831.57327976542</v>
+        <v>1831.573279765419</v>
       </c>
       <c r="S4" t="n">
-        <v>1639.791488662171</v>
+        <v>1639.79148866217</v>
       </c>
       <c r="T4" t="n">
-        <v>1418.00135927388</v>
+        <v>1639.79148866217</v>
       </c>
       <c r="U4" t="n">
-        <v>1128.898192221339</v>
+        <v>1639.79148866217</v>
       </c>
       <c r="V4" t="n">
-        <v>1128.898192221339</v>
+        <v>1575.078063483156</v>
       </c>
       <c r="W4" t="n">
-        <v>839.4810221843779</v>
+        <v>1575.078063483156</v>
       </c>
       <c r="X4" t="n">
-        <v>839.4810221843779</v>
+        <v>1347.088512585139</v>
       </c>
       <c r="Y4" t="n">
-        <v>839.4810221843779</v>
+        <v>1126.295933441609</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1232.584018541385</v>
+        <v>1175.300932605789</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>806.3384156653776</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>806.3384156653776</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>420.5501630671334</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678286</v>
+        <v>371.1063340505567</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>360.0742879359573</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4583,34 +4583,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2689.539276464522</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2382.788948842398</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2009.323190581319</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>1619.183858605507</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>826.5851666348717</v>
+        <v>846.3749096777597</v>
       </c>
       <c r="C7" t="n">
-        <v>657.6489837069648</v>
+        <v>677.4387267498528</v>
       </c>
       <c r="D7" t="n">
-        <v>507.5323442946291</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E7" t="n">
-        <v>359.619250712236</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1476.805504549547</v>
       </c>
       <c r="U7" t="n">
-        <v>1615.697475415547</v>
+        <v>1476.805504549547</v>
       </c>
       <c r="V7" t="n">
-        <v>1615.697475415547</v>
+        <v>1476.805504549547</v>
       </c>
       <c r="W7" t="n">
-        <v>1326.280305378586</v>
+        <v>1476.805504549547</v>
       </c>
       <c r="X7" t="n">
-        <v>1229.026210608642</v>
+        <v>1248.815953651529</v>
       </c>
       <c r="Y7" t="n">
-        <v>1008.233631465111</v>
+        <v>1028.023374507999</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2268.308520734407</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1899.346003793995</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1541.080305187244</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265601</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734407</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734407</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.5187033424295</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.505358501181</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.402491626824</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.718003420938</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W10" t="n">
-        <v>812.300833383977</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X10" t="n">
-        <v>584.3112824859596</v>
+        <v>933.7510266797581</v>
       </c>
       <c r="Y10" t="n">
-        <v>363.5187033424295</v>
+        <v>712.9584475362279</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5021,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>194.8007783998286</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1481.896215602927</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1192.479045565966</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>964.4894946679489</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,16 +5355,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400694</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121625</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998268</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
         <v>93.81666304797187</v>
@@ -5449,10 +5449,10 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580259</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
         <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703091</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5601,16 +5601,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>365.9405071576781</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>219.0505596597677</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>219.0505596597677</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>733.4550657171305</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>564.5188827892237</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>915.1035305473703</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="26">
@@ -6215,16 +6215,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6367,13 +6367,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6455,28 +6455,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6488,25 +6488,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,10 +6889,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6926,28 +6926,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384023</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7129,7 +7129,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7163,19 +7163,19 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319316</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565681</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150015</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942647</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345468</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954148</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,13 +7588,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532431</v>
@@ -7603,16 +7603,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345477</v>
@@ -7804,25 +7804,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954154</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.5463950602909335</v>
+        <v>0.5463950602909904</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>27.04520325362375</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H2" t="n">
-        <v>294.7321536188796</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,22 +22598,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>95.57192441373792</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>137.5127994980896</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22756,22 +22756,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>188.0713523966044</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22799,7 +22799,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>45.55814437151029</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22844,7 +22844,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>45.55814437151099</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229259</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>121.5862749664513</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>47.71290145456675</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>46.45968844823281</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>46.45968844823233</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>97.57899151911153</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.6433062151475</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>134.8730892594351</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>143.6212754172151</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1323812.103796506</v>
+        <v>1323812.103796507</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>85079.37398365742</v>
+        <v>85079.37398365745</v>
       </c>
       <c r="C2" t="n">
         <v>102176.9176965389</v>
@@ -26329,25 +26329,25 @@
         <v>100893.3249612508</v>
       </c>
       <c r="H2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="I2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>100893.3249612507</v>
+        <v>100893.3249612508</v>
       </c>
       <c r="K2" t="n">
         <v>100893.3249612508</v>
       </c>
       <c r="L2" t="n">
+        <v>102630.2212330355</v>
+      </c>
+      <c r="M2" t="n">
         <v>102630.2212330356</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>102630.2212330355</v>
-      </c>
-      <c r="N2" t="n">
-        <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330355</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1324592.616629868</v>
+        <v>1324592.616629867</v>
       </c>
       <c r="C3" t="n">
-        <v>3947.344390014962</v>
+        <v>3947.34439001545</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>216562.4822237809</v>
+        <v>216562.4822237808</v>
       </c>
       <c r="K3" t="n">
-        <v>952.8885570181321</v>
+        <v>952.8885570182491</v>
       </c>
       <c r="L3" t="n">
         <v>19427.71799363177</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26418,22 @@
         <v>13043.78970477443</v>
       </c>
       <c r="C4" t="n">
-        <v>90114.05304721501</v>
+        <v>90114.05304721504</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
-        <v>12996.86414683053</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26442,19 +26442,19 @@
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683047</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>20987.72340992394</v>
+        <v>20987.72340992392</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992393</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992389</v>
+        <v>20987.72340992391</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992396</v>
       </c>
       <c r="P4" t="n">
         <v>20987.7234099239</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1360200.000604758</v>
+        <v>-1360551.017549745</v>
       </c>
       <c r="C6" t="n">
-        <v>-99818.42030208439</v>
+        <v>-99827.48637281483</v>
       </c>
       <c r="D6" t="n">
         <v>-97487.61824653963</v>
       </c>
       <c r="E6" t="n">
-        <v>-338638.530816842</v>
+        <v>-338673.2687422776</v>
       </c>
       <c r="F6" t="n">
-        <v>-13226.06900948675</v>
+        <v>-13260.80693492247</v>
       </c>
       <c r="G6" t="n">
-        <v>-13226.06900948679</v>
+        <v>-13260.80693492248</v>
       </c>
       <c r="H6" t="n">
-        <v>-13226.0690094868</v>
+        <v>-13260.8069349225</v>
       </c>
       <c r="I6" t="n">
-        <v>-13226.06900948683</v>
+        <v>-13260.80693492247</v>
       </c>
       <c r="J6" t="n">
-        <v>-229788.5512332677</v>
+        <v>-229823.2891587033</v>
       </c>
       <c r="K6" t="n">
-        <v>-14178.95756650493</v>
+        <v>-14213.69549194073</v>
       </c>
       <c r="L6" t="n">
-        <v>-40949.33602443551</v>
+        <v>-40949.33602443562</v>
       </c>
       <c r="M6" t="n">
-        <v>-106576.6459663156</v>
+        <v>-106576.6459663155</v>
       </c>
       <c r="N6" t="n">
         <v>-21521.61803080386</v>
       </c>
       <c r="O6" t="n">
+        <v>-21521.61803080383</v>
+      </c>
+      <c r="P6" t="n">
         <v>-21521.61803080385</v>
-      </c>
-      <c r="P6" t="n">
-        <v>-21521.61803080383</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26704,25 +26704,25 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203975</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203969</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1086.755407162287</v>
+        <v>1086.755407162286</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689932</v>
+        <v>827.699019368993</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1086.755407162287</v>
+        <v>1086.755407162286</v>
       </c>
       <c r="C3" t="n">
-        <v>3.021293431011372</v>
+        <v>3.021293431011827</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>827.6990193689932</v>
+        <v>827.699019368993</v>
       </c>
       <c r="C4" t="n">
-        <v>3.702436033299364</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689933</v>
+        <v>827.699019368993</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299136</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>827.6990193689932</v>
+        <v>827.699019368993</v>
       </c>
       <c r="K4" t="n">
-        <v>3.702436033299364</v>
+        <v>3.702436033299591</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>357.9266550153005</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,13 +27667,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>58.22931252401099</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27780,13 +27780,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>52.26597417410176</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>129.4281015667922</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>76.09032876016266</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>181.0031817823379</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>95.59882899033273</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>29.50980425477786</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>5.319596615057283e-12</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29815,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.368865958441351</v>
+        <v>4.368865958441349</v>
       </c>
       <c r="H2" t="n">
-        <v>44.7426484968875</v>
+        <v>44.74264849688748</v>
       </c>
       <c r="I2" t="n">
-        <v>168.4307048628104</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J2" t="n">
-        <v>370.802037140262</v>
+        <v>370.8020371402618</v>
       </c>
       <c r="K2" t="n">
-        <v>555.7361331610845</v>
+        <v>555.7361331610842</v>
       </c>
       <c r="L2" t="n">
-        <v>689.4398147367341</v>
+        <v>689.4398147367339</v>
       </c>
       <c r="M2" t="n">
-        <v>767.1346347251655</v>
+        <v>767.1346347251651</v>
       </c>
       <c r="N2" t="n">
-        <v>779.547675129587</v>
+        <v>779.5476751295867</v>
       </c>
       <c r="O2" t="n">
-        <v>736.1047642553358</v>
+        <v>736.1047642553355</v>
       </c>
       <c r="P2" t="n">
-        <v>628.2483859063149</v>
+        <v>628.2483859063145</v>
       </c>
       <c r="Q2" t="n">
-        <v>471.7883737696338</v>
+        <v>471.7883737696336</v>
       </c>
       <c r="R2" t="n">
-        <v>274.4357762619418</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S2" t="n">
-        <v>99.55553302798239</v>
+        <v>99.55553302798235</v>
       </c>
       <c r="T2" t="n">
         <v>19.12471073307702</v>
       </c>
       <c r="U2" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3495092766753079</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.33754936634907</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H3" t="n">
-        <v>22.57580572237129</v>
+        <v>22.57580572237127</v>
       </c>
       <c r="I3" t="n">
-        <v>80.48141458701843</v>
+        <v>80.48141458701839</v>
       </c>
       <c r="J3" t="n">
-        <v>220.8471530724795</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K3" t="n">
-        <v>377.4629606178672</v>
+        <v>377.462960617867</v>
       </c>
       <c r="L3" t="n">
-        <v>507.5455323732926</v>
+        <v>507.5455323732924</v>
       </c>
       <c r="M3" t="n">
-        <v>592.2816969034463</v>
+        <v>592.281696903446</v>
       </c>
       <c r="N3" t="n">
-        <v>607.9576310312873</v>
+        <v>607.9576310312871</v>
       </c>
       <c r="O3" t="n">
-        <v>556.1624582295526</v>
+        <v>556.1624582295524</v>
       </c>
       <c r="P3" t="n">
-        <v>446.3694048776571</v>
+        <v>446.3694048776569</v>
       </c>
       <c r="Q3" t="n">
-        <v>298.3861261325585</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R3" t="n">
         <v>145.133108903673</v>
       </c>
       <c r="S3" t="n">
-        <v>43.41895423898379</v>
+        <v>43.41895423898378</v>
       </c>
       <c r="T3" t="n">
-        <v>9.421964331906993</v>
+        <v>9.42196433190699</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1537861425229651</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,46 +31200,46 @@
         <v>1.959722865374615</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4237178394216</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I4" t="n">
-        <v>58.93421126053845</v>
+        <v>58.93421126053843</v>
       </c>
       <c r="J4" t="n">
         <v>138.5524065819853</v>
       </c>
       <c r="K4" t="n">
-        <v>227.6841656317053</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L4" t="n">
-        <v>291.3573430939679</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M4" t="n">
-        <v>307.1954669786772</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N4" t="n">
-        <v>299.8910453895539</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O4" t="n">
-        <v>276.9979191894957</v>
+        <v>276.9979191894956</v>
       </c>
       <c r="P4" t="n">
-        <v>237.0195727358534</v>
+        <v>237.0195727358533</v>
       </c>
       <c r="Q4" t="n">
         <v>164.1000664815053</v>
       </c>
       <c r="R4" t="n">
-        <v>88.1162662922077</v>
+        <v>88.11626629220765</v>
       </c>
       <c r="S4" t="n">
-        <v>34.15262484475579</v>
+        <v>34.15262484475577</v>
       </c>
       <c r="T4" t="n">
-        <v>8.373361333873355</v>
+        <v>8.373361333873351</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>270.9486956727256</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>210.3948924365567</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>409.0029787211719</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33907,7 +33907,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
         <v>790.8204499236507</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,13 +33980,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>189.7561326135757</v>
+        <v>189.7561326135755</v>
       </c>
       <c r="K2" t="n">
-        <v>335.6462821161039</v>
+        <v>335.6462821161037</v>
       </c>
       <c r="L2" t="n">
-        <v>453.6733997667469</v>
+        <v>453.6733997667466</v>
       </c>
       <c r="M2" t="n">
-        <v>536.7884014978928</v>
+        <v>536.7884014978924</v>
       </c>
       <c r="N2" t="n">
-        <v>550.1346115329961</v>
+        <v>550.1346115329957</v>
       </c>
       <c r="O2" t="n">
-        <v>506.006552833649</v>
+        <v>506.0065528336487</v>
       </c>
       <c r="P2" t="n">
-        <v>397.0153901510453</v>
+        <v>397.015390151045</v>
       </c>
       <c r="Q2" t="n">
-        <v>249.4826838951843</v>
+        <v>249.4826838951841</v>
       </c>
       <c r="R2" t="n">
-        <v>58.85023844780966</v>
+        <v>58.85023844780955</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.00952640581281</v>
+        <v>94.00952640581272</v>
       </c>
       <c r="K3" t="n">
-        <v>239.6215216435082</v>
+        <v>239.621521643508</v>
       </c>
       <c r="L3" t="n">
-        <v>368.9911525934185</v>
+        <v>368.9911525934182</v>
       </c>
       <c r="M3" t="n">
-        <v>450.147662981428</v>
+        <v>450.1476629814277</v>
       </c>
       <c r="N3" t="n">
-        <v>476.615918947954</v>
+        <v>476.6159189479538</v>
       </c>
       <c r="O3" t="n">
-        <v>413.5662137851082</v>
+        <v>413.5662137851079</v>
       </c>
       <c r="P3" t="n">
-        <v>312.3949974633269</v>
+        <v>312.3949974633267</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.404352046537</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19322646531253</v>
+        <v>45.19322646531248</v>
       </c>
       <c r="K4" t="n">
-        <v>205.4146738058224</v>
+        <v>205.4146738058223</v>
       </c>
       <c r="L4" t="n">
-        <v>318.947368354284</v>
+        <v>318.9473683542839</v>
       </c>
       <c r="M4" t="n">
-        <v>346.7793439405178</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N4" t="n">
-        <v>344.0232177687825</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O4" t="n">
-        <v>301.5830471035354</v>
+        <v>301.5830471035353</v>
       </c>
       <c r="P4" t="n">
-        <v>234.2981320007469</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q4" t="n">
-        <v>77.93802322981092</v>
+        <v>77.93802322981087</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35817,13 +35817,13 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998968</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>68.26085851453838</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991536</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,13 +37464,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37555,7 +37555,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,13 +37628,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
